--- a/index2017.xlsx
+++ b/index2017.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index2017" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index2017!$Z$1:$Z$187</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -96,601 +99,602 @@
     <t xml:space="preserve"> GDP Billions PPP </t>
   </si>
   <si>
+    <t>GDP per Capita PPP</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Inflation Perc</t>
+  </si>
+  <si>
+    <t>FDI Inflow Millions</t>
+  </si>
+  <si>
+    <t>Public Debt Perc of GDP</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Asia-Pacific</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Middle East / North Africa</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo, Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Congo, Republic of</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>C魌e d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, North </t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lao P.D.R.</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint. Lucia</t>
+  </si>
+  <si>
+    <t>Saint. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>S鉶 Tom?and Pr韓cipe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan </t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
     <t>GDP Growth Rate</t>
-  </si>
-  <si>
-    <t>GDP per Capita PPP</t>
-  </si>
-  <si>
-    <t>Unemployment</t>
-  </si>
-  <si>
-    <t>Inflation Perc</t>
-  </si>
-  <si>
-    <t>FDI Inflow Millions</t>
-  </si>
-  <si>
-    <t>Public Debt Perc of GDP</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Asia-Pacific</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Middle East / North Africa</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo, Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Congo, Republic of</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>C魌e d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong SAR</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, North </t>
-  </si>
-  <si>
-    <t>Korea, South</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Lao P.D.R.</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint. Lucia</t>
-  </si>
-  <si>
-    <t>Saint. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>S鉶 Tom?and Pr韓cipe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan </t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -852,7 +856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1034,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1277,8 +1287,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1635,12 +1648,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="26" max="26" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -1694,7 +1712,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1718,23 +1736,23 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -1742,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2">
         <v>163</v>
@@ -1837,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3">
         <v>65</v>
@@ -1932,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
       <c r="D4">
         <v>172</v>
@@ -2027,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
       <c r="D5">
         <v>165</v>
@@ -2122,10 +2140,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
       </c>
       <c r="D6">
         <v>156</v>
@@ -2217,10 +2235,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>33</v>
@@ -2312,10 +2330,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -2407,10 +2425,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -2502,10 +2520,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>68</v>
@@ -2597,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>90</v>
@@ -2692,10 +2710,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>44</v>
@@ -2787,10 +2805,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -2882,10 +2900,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>130</v>
@@ -2977,10 +2995,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>104</v>
@@ -3072,10 +3090,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>49</v>
@@ -3167,10 +3185,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>101</v>
@@ -3262,10 +3280,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>96</v>
@@ -3357,10 +3375,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>107</v>
@@ -3452,10 +3470,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>168</v>
@@ -3547,10 +3565,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3642,10 +3660,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>34</v>
@@ -3737,10 +3755,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>140</v>
@@ -3832,10 +3850,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>47</v>
@@ -3927,10 +3945,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>93</v>
@@ -4022,10 +4040,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>146</v>
@@ -4117,10 +4135,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>139</v>
@@ -4212,10 +4230,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>94</v>
@@ -4307,10 +4325,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>150</v>
@@ -4402,10 +4420,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -4497,10 +4515,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>116</v>
@@ -4592,10 +4610,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>151</v>
@@ -4687,10 +4705,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>162</v>
@@ -4782,10 +4800,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -4877,10 +4895,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>111</v>
@@ -4972,10 +4990,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>37</v>
@@ -5067,10 +5085,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>121</v>
@@ -5162,10 +5180,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>117</v>
@@ -5257,10 +5275,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>177</v>
@@ -5352,10 +5370,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>63</v>
@@ -5447,10 +5465,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41">
         <v>75</v>
@@ -5542,10 +5560,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>95</v>
@@ -5637,10 +5655,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>178</v>
@@ -5726,10 +5744,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>48</v>
@@ -5821,10 +5839,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>28</v>
@@ -5916,10 +5934,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>18</v>
@@ -6011,10 +6029,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>171</v>
@@ -6106,10 +6124,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48">
         <v>67</v>
@@ -6198,10 +6216,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49">
         <v>76</v>
@@ -6293,10 +6311,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50">
         <v>160</v>
@@ -6388,10 +6406,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>144</v>
@@ -6483,10 +6501,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52">
         <v>66</v>
@@ -6578,10 +6596,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>174</v>
@@ -6673,10 +6691,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>176</v>
@@ -6768,10 +6786,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -6863,10 +6881,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56">
         <v>142</v>
@@ -6958,10 +6976,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>71</v>
@@ -7053,10 +7071,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -7148,10 +7166,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>72</v>
@@ -7243,10 +7261,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>103</v>
@@ -7338,10 +7356,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61">
         <v>136</v>
@@ -7433,10 +7451,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -7528,10 +7546,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63">
         <v>26</v>
@@ -7623,10 +7641,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64">
         <v>118</v>
@@ -7718,10 +7736,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65">
         <v>127</v>
@@ -7813,10 +7831,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D66">
         <v>74</v>
@@ -7908,10 +7926,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>169</v>
@@ -8003,10 +8021,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68">
         <v>119</v>
@@ -8098,10 +8116,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69">
         <v>106</v>
@@ -8193,10 +8211,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70">
         <v>159</v>
@@ -8288,10 +8306,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71">
         <v>100</v>
@@ -8383,10 +8401,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -8478,10 +8496,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73">
         <v>56</v>
@@ -8573,10 +8591,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74">
         <v>22</v>
@@ -8668,10 +8686,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75">
         <v>143</v>
@@ -8763,10 +8781,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76">
         <v>84</v>
@@ -8858,10 +8876,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77">
         <v>155</v>
@@ -8953,10 +8971,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>37.299999999999997</v>
@@ -9021,10 +9039,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -9116,10 +9134,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80">
         <v>36</v>
@@ -9211,10 +9229,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81">
         <v>79</v>
@@ -9306,10 +9324,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82">
         <v>41</v>
@@ -9401,10 +9419,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83">
         <v>40</v>
@@ -9496,10 +9514,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84">
         <v>53</v>
@@ -9591,10 +9609,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>42</v>
@@ -9686,10 +9704,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>135</v>
@@ -9781,10 +9799,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87">
         <v>153</v>
@@ -9873,10 +9891,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>180</v>
@@ -9935,10 +9953,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89">
         <v>23</v>
@@ -10030,10 +10048,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90">
         <v>61</v>
@@ -10125,10 +10143,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91">
         <v>89</v>
@@ -10220,10 +10238,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>133</v>
@@ -10315,10 +10333,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>20</v>
@@ -10410,10 +10428,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94">
         <v>137</v>
@@ -10505,10 +10523,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D95">
         <v>134</v>
@@ -10600,10 +10618,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D96">
         <v>161</v>
@@ -10695,10 +10713,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>6.8</v>
@@ -10772,10 +10790,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M98">
         <v>92.3</v>
@@ -10807,10 +10825,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -10902,10 +10920,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100">
         <v>14</v>
@@ -10997,10 +11015,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -11092,10 +11110,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102">
         <v>31</v>
@@ -11187,10 +11205,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D103">
         <v>113</v>
@@ -11282,10 +11300,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104">
         <v>149</v>
@@ -11377,10 +11395,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105">
         <v>27</v>
@@ -11472,10 +11490,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106">
         <v>157</v>
@@ -11567,10 +11585,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107">
         <v>102</v>
@@ -11662,10 +11680,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108">
         <v>50</v>
@@ -11757,10 +11775,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D109">
         <v>131</v>
@@ -11852,10 +11870,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D110">
         <v>21</v>
@@ -11947,10 +11965,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D111">
         <v>70</v>
@@ -12042,10 +12060,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112">
         <v>132</v>
@@ -12134,10 +12152,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113">
         <v>110</v>
@@ -12229,10 +12247,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114">
         <v>129</v>
@@ -12324,10 +12342,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115">
         <v>83</v>
@@ -12419,10 +12437,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D116">
         <v>86</v>
@@ -12514,10 +12532,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D117">
         <v>158</v>
@@ -12609,10 +12627,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D118">
         <v>78</v>
@@ -12704,10 +12722,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119">
         <v>125</v>
@@ -12799,10 +12817,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120">
         <v>15</v>
@@ -12894,10 +12912,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -12989,10 +13007,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D122">
         <v>98</v>
@@ -13084,10 +13102,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D123">
         <v>154</v>
@@ -13179,10 +13197,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D124">
         <v>115</v>
@@ -13274,10 +13292,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125">
         <v>25</v>
@@ -13369,10 +13387,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D126">
         <v>82</v>
@@ -13464,10 +13482,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127">
         <v>141</v>
@@ -13559,10 +13577,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D128">
         <v>54</v>
@@ -13654,10 +13672,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129">
         <v>152</v>
@@ -13749,10 +13767,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D130">
         <v>80</v>
@@ -13844,10 +13862,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D131">
         <v>43</v>
@@ -13939,10 +13957,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132">
         <v>58</v>
@@ -14034,10 +14052,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133">
         <v>45</v>
@@ -14129,10 +14147,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134">
         <v>77</v>
@@ -14224,10 +14242,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D135">
         <v>29</v>
@@ -14319,10 +14337,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136">
         <v>39</v>
@@ -14414,10 +14432,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137">
         <v>114</v>
@@ -14509,10 +14527,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D138">
         <v>51</v>
@@ -14604,10 +14622,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D139">
         <v>62</v>
@@ -14699,10 +14717,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D140">
         <v>59</v>
@@ -14794,10 +14812,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141">
         <v>108</v>
@@ -14889,10 +14907,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D142">
         <v>124</v>
@@ -14984,10 +15002,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D143">
         <v>64</v>
@@ -15079,10 +15097,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D144">
         <v>120</v>
@@ -15174,10 +15192,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145">
         <v>99</v>
@@ -15269,10 +15287,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D146">
         <v>85</v>
@@ -15361,10 +15379,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D147">
         <v>145</v>
@@ -15456,10 +15474,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -15551,10 +15569,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149">
         <v>57</v>
@@ -15646,10 +15664,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150">
         <v>97</v>
@@ -15741,10 +15759,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151">
         <v>126</v>
@@ -15836,10 +15854,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D152">
         <v>81</v>
@@ -15931,10 +15949,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153">
         <v>69</v>
@@ -16026,10 +16044,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154">
         <v>112</v>
@@ -16121,10 +16139,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D155">
         <v>164</v>
@@ -16216,10 +16234,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D156">
         <v>167</v>
@@ -16311,10 +16329,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D157">
         <v>88</v>
@@ -16406,10 +16424,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158">
         <v>19</v>
@@ -16501,10 +16519,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159">
         <v>4</v>
@@ -16596,10 +16614,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>37.299999999999997</v>
@@ -16649,10 +16667,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D161">
         <v>11</v>
@@ -16744,10 +16762,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162">
         <v>109</v>
@@ -16839,10 +16857,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D163">
         <v>105</v>
@@ -16934,10 +16952,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164">
         <v>55</v>
@@ -17029,10 +17047,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165">
         <v>173</v>
@@ -17121,10 +17139,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D166">
         <v>138</v>
@@ -17216,10 +17234,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167">
         <v>73</v>
@@ -17311,10 +17329,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D168">
         <v>87</v>
@@ -17406,10 +17424,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D169">
         <v>123</v>
@@ -17501,10 +17519,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D170">
         <v>60</v>
@@ -17596,10 +17614,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D171">
         <v>170</v>
@@ -17691,10 +17709,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D172">
         <v>91</v>
@@ -17786,10 +17804,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173">
         <v>166</v>
@@ -17881,10 +17899,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -17976,10 +17994,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D175">
         <v>12</v>
@@ -18071,10 +18089,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D176">
         <v>17</v>
@@ -18166,10 +18184,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D177">
         <v>38</v>
@@ -18261,10 +18279,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D178">
         <v>148</v>
@@ -18356,10 +18374,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179">
         <v>52</v>
@@ -18451,10 +18469,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D180">
         <v>179</v>
@@ -18546,10 +18564,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>147</v>
@@ -18641,10 +18659,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>37.299999999999997</v>
@@ -18712,10 +18730,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D183">
         <v>122</v>
@@ -18807,10 +18825,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D184">
         <v>175</v>
@@ -18902,10 +18920,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185">
         <v>6.8</v>
@@ -18940,10 +18958,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186">
         <v>46</v>
@@ -19029,10 +19047,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187">
         <v>35</v>
@@ -19120,6 +19138,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="Z1:Z187" xr:uid="{2CA55793-B609-40EF-B830-D0D4438951A0}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index2017.xlsx
+++ b/index2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -651,9 +651,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -688,6 +685,10 @@
   </si>
   <si>
     <t>GDP Growth Rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States of America</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1651,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1737,7 +1738,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -18089,7 +18090,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C176" t="s">
         <v>39</v>
@@ -18184,7 +18185,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C177" t="s">
         <v>39</v>
@@ -18279,7 +18280,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
@@ -18374,7 +18375,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C179" t="s">
         <v>31</v>
@@ -18469,7 +18470,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C180" t="s">
         <v>39</v>
@@ -18564,7 +18565,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>31</v>
@@ -18659,7 +18660,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -18730,7 +18731,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -18825,7 +18826,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
         <v>37</v>
@@ -18920,7 +18921,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C185" t="s">
         <v>37</v>
@@ -18958,7 +18959,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
         <v>33</v>
@@ -19047,7 +19048,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
         <v>31</v>
@@ -19141,5 +19142,6 @@
   <autoFilter ref="Z1:Z187" xr:uid="{2CA55793-B609-40EF-B830-D0D4438951A0}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>